--- a/sources/fact_extraction_viewpoint/economy-table07.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table07.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table_2!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="General_)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0_)"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -319,25 +319,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,7 +353,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -363,28 +363,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -395,11 +395,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -413,6 +413,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -920,8 +921,8 @@
   <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
@@ -2402,13 +2403,13 @@
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
+      <c r="H49" s="41"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
       <c r="A50" s="15" t="s">
